--- a/asset/gfx/Xep Hinh/Design/Design.xlsx
+++ b/asset/gfx/Xep Hinh/Design/Design.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Go" sheetId="1" r:id="rId1"/>
+    <sheet name="Single playing" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Loading...</t>
   </si>
@@ -56,13 +57,55 @@
   </si>
   <si>
     <t>Hiệu ứng mở ra, chữ chạy, hiện nút Done!</t>
+  </si>
+  <si>
+    <t>SINGLE PLAYER</t>
+  </si>
+  <si>
+    <t>Ghi điểm</t>
+  </si>
+  <si>
+    <t>Hiệu ứng bể gạch</t>
+  </si>
+  <si>
+    <t>Cột power</t>
+  </si>
+  <si>
+    <t>Thanh thời gian</t>
+  </si>
+  <si>
+    <t>bảng điểm</t>
+  </si>
+  <si>
+    <t>Ghi càng nhiều điểm Power càng tăng. Sau khi full power chuyển sang chế độ TĂNG TỐC trong 20s</t>
+  </si>
+  <si>
+    <t>MÁch nhỏ: để có thật nhiều điểm, bạn hãy ghi điểm thật nhanh để TĂNG TỐC NHIỀU LẦN</t>
+  </si>
+  <si>
+    <t>MÁch nhỏ: Ghi nhiều điểm cùng lúc để có Power nhanh nhất.</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cIrcle </t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nExt </t>
+  </si>
+  <si>
+    <t>thu vụn gạch lên điểm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +139,15 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -222,6 +274,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,9 +304,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -261,7 +313,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,6 +331,255 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3572</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619126" y="571499"/>
+          <a:ext cx="2432446" cy="4324349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2628900" y="1304925"/>
+          <a:ext cx="1047750" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1028700" y="1295400"/>
+          <a:ext cx="2609850" cy="1466850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2095500" y="4114800"/>
+          <a:ext cx="1562100" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1790700" y="695325"/>
+          <a:ext cx="1828800" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -542,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -555,129 +858,211 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E6" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="13" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="M9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="M13" s="12" t="s">
+      <c r="H13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="M14" s="12" t="s">
+      <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M15" s="12" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="M16" s="12" t="s">
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="E9:G13"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E6:G8"/>
-    <mergeCell ref="M9:O11"/>
+    <mergeCell ref="H9:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/asset/gfx/Xep Hinh/Design/Design.xlsx
+++ b/asset/gfx/Xep Hinh/Design/Design.xlsx
@@ -13,7 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Go" sheetId="1" r:id="rId1"/>
-    <sheet name="Single playing" sheetId="2" r:id="rId2"/>
+    <sheet name="GEneral" sheetId="2" r:id="rId2"/>
+    <sheet name="Single play" sheetId="4" r:id="rId3"/>
+    <sheet name="Battles" sheetId="5" r:id="rId4"/>
+    <sheet name="Facebook" sheetId="6" r:id="rId5"/>
+    <sheet name="Mission" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Loading...</t>
   </si>
@@ -99,6 +103,82 @@
   </si>
   <si>
     <t>thu vụn gạch lên điểm</t>
+  </si>
+  <si>
+    <t>Giống Tetris trên máy thằng Tân</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ điểm</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ combo</t>
+  </si>
+  <si>
+    <t>đạt đủ điểm qua màn</t>
+  </si>
+  <si>
+    <t>ăN trọn 1 hình</t>
+  </si>
+  <si>
+    <t>vd: ăn hết 4 hàng của thanh 4</t>
+  </si>
+  <si>
+    <t>Thu Item</t>
+  </si>
+  <si>
+    <t>vẽ item lên trên</t>
+  </si>
+  <si>
+    <t>thể hiện item sẽ thu được trong map</t>
+  </si>
+  <si>
+    <t>nam châm</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xóa 3 hàng ít gạch nhất
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2 kinh nghiệm
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tăng thời gian
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mưa sao băng
+</t>
+  </si>
+  <si>
+    <t>đốt những viên trên cùng</t>
+  </si>
+  <si>
+    <t>nút bấm</t>
+  </si>
+  <si>
+    <t>hiện ra hướng dẫn mờ</t>
+  </si>
+  <si>
+    <t>nút bấm item</t>
+  </si>
+  <si>
+    <t>nhấn</t>
+  </si>
+  <si>
+    <t>đang làm</t>
+  </si>
+  <si>
+    <t>chưa</t>
+  </si>
+  <si>
+    <t>hiệu ứng lóe sáng</t>
+  </si>
+  <si>
+    <t>thu tia sáng lên điểm</t>
   </si>
 </sst>
 </file>
@@ -149,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +239,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,10 +362,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -345,7 +445,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3572</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>133348</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -482,15 +582,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -498,9 +598,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2095500" y="4114800"/>
-          <a:ext cx="1562100" cy="123825"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2028825" y="4229100"/>
+          <a:ext cx="1628775" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -865,107 +965,107 @@
     </row>
     <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="3" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="3" t="s">
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -986,28 +1086,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>13</v>
       </c>
@@ -1015,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1026,33 +1140,86 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>11</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
         <v>14</v>
       </c>
@@ -1065,4 +1232,124 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>